--- a/Medidas - 16 bits - 500KB.xlsx
+++ b/Medidas - 16 bits - 500KB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\IME\Computação\PFC\pfc-ml-crypto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71bff1afd2b44a02/Desktop/5 ano/PFC/pfc-ml-crypto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0D177-98FB-4E42-B109-C08BE3E694FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5BC0D177-98FB-4E42-B109-C08BE3E694FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5877758C-61BF-440C-BCDC-8F275B21B4F0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COS" sheetId="2" r:id="rId1"/>
@@ -51,148 +51,148 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>DES_doc_1.txt</t>
+    <t>DES_doc_1</t>
   </si>
   <si>
-    <t>DES_doc_10.txt</t>
+    <t>DES_doc_2</t>
   </si>
   <si>
-    <t>DES_doc_11.txt</t>
+    <t>DES_doc_3</t>
   </si>
   <si>
-    <t>DES_doc_12.txt</t>
+    <t>DES_doc_4</t>
   </si>
   <si>
-    <t>DES_doc_13.txt</t>
+    <t>DES_doc_5</t>
   </si>
   <si>
-    <t>DES_doc_14.txt</t>
+    <t>DES_doc_6</t>
   </si>
   <si>
-    <t>DES_doc_15.txt</t>
+    <t>DES_doc_7</t>
   </si>
   <si>
-    <t>DES_doc_16.txt</t>
+    <t>DES_doc_8</t>
   </si>
   <si>
-    <t>DES_doc_2.txt</t>
+    <t>DES_doc_9</t>
   </si>
   <si>
-    <t>DES_doc_3.txt</t>
+    <t>DES_doc_10</t>
   </si>
   <si>
-    <t>DES_doc_4.txt</t>
+    <t>DES_doc_11</t>
   </si>
   <si>
-    <t>DES_doc_5.txt</t>
+    <t>DES_doc_12</t>
   </si>
   <si>
-    <t>DES_doc_6.txt</t>
+    <t>DES_doc_13</t>
   </si>
   <si>
-    <t>DES_doc_7.txt</t>
+    <t>DES_doc_14</t>
   </si>
   <si>
-    <t>DES_doc_8.txt</t>
+    <t>DES_doc_15</t>
   </si>
   <si>
-    <t>DES_doc_9.txt</t>
+    <t>DES_doc_16</t>
   </si>
   <si>
-    <t>ElGamal_doc_1.txt</t>
+    <t>ElGamal_doc_1</t>
   </si>
   <si>
-    <t>ElGamal_doc_10.txt</t>
+    <t>ElGamal_doc_2</t>
   </si>
   <si>
-    <t>ElGamal_doc_11.txt</t>
+    <t>ElGamal_doc_3</t>
   </si>
   <si>
-    <t>ElGamal_doc_12.txt</t>
+    <t>ElGamal_doc_4</t>
   </si>
   <si>
-    <t>ElGamal_doc_13.txt</t>
+    <t>ElGamal_doc_5</t>
   </si>
   <si>
-    <t>ElGamal_doc_14.txt</t>
+    <t>ElGamal_doc_6</t>
   </si>
   <si>
-    <t>ElGamal_doc_15.txt</t>
+    <t>ElGamal_doc_7</t>
   </si>
   <si>
-    <t>ElGamal_doc_16.txt</t>
+    <t>ElGamal_doc_8</t>
   </si>
   <si>
-    <t>ElGamal_doc_2.txt</t>
+    <t>ElGamal_doc_9</t>
   </si>
   <si>
-    <t>ElGamal_doc_3.txt</t>
+    <t>ElGamal_doc_10</t>
   </si>
   <si>
-    <t>ElGamal_doc_4.txt</t>
+    <t>ElGamal_doc_11</t>
   </si>
   <si>
-    <t>ElGamal_doc_5.txt</t>
+    <t>ElGamal_doc_12</t>
   </si>
   <si>
-    <t>ElGamal_doc_6.txt</t>
+    <t>ElGamal_doc_13</t>
   </si>
   <si>
-    <t>ElGamal_doc_7.txt</t>
+    <t>ElGamal_doc_14</t>
   </si>
   <si>
-    <t>ElGamal_doc_8.txt</t>
+    <t>ElGamal_doc_15</t>
   </si>
   <si>
-    <t>ElGamal_doc_9.txt</t>
+    <t>ElGamal_doc_16</t>
   </si>
   <si>
-    <t>RSA_doc_1.txt</t>
+    <t>RSA_doc_1</t>
   </si>
   <si>
-    <t>RSA_doc_10.txt</t>
+    <t>RSA_doc_2</t>
   </si>
   <si>
-    <t>RSA_doc_11.txt</t>
+    <t>RSA_doc_3</t>
   </si>
   <si>
-    <t>RSA_doc_12.txt</t>
+    <t>RSA_doc_4</t>
   </si>
   <si>
-    <t>RSA_doc_13.txt</t>
+    <t>RSA_doc_5</t>
   </si>
   <si>
-    <t>RSA_doc_14.txt</t>
+    <t>RSA_doc_6</t>
   </si>
   <si>
-    <t>RSA_doc_15.txt</t>
+    <t>RSA_doc_7</t>
   </si>
   <si>
-    <t>RSA_doc_16.txt</t>
+    <t>RSA_doc_8</t>
   </si>
   <si>
-    <t>RSA_doc_2.txt</t>
+    <t>RSA_doc_9</t>
   </si>
   <si>
-    <t>RSA_doc_3.txt</t>
+    <t>RSA_doc_10</t>
   </si>
   <si>
-    <t>RSA_doc_4.txt</t>
+    <t>RSA_doc_11</t>
   </si>
   <si>
-    <t>RSA_doc_5.txt</t>
+    <t>RSA_doc_12</t>
   </si>
   <si>
-    <t>RSA_doc_6.txt</t>
+    <t>RSA_doc_13</t>
   </si>
   <si>
-    <t>RSA_doc_7.txt</t>
+    <t>RSA_doc_14</t>
   </si>
   <si>
-    <t>RSA_doc_8.txt</t>
+    <t>RSA_doc_15</t>
   </si>
   <si>
-    <t>RSA_doc_9.txt</t>
+    <t>RSA_doc_16</t>
   </si>
 </sst>
 </file>
@@ -228,9 +228,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,54 +436,54 @@
   <autoFilter ref="A1:AW49" xr:uid="{DD3F75D8-DAD3-4621-8EE7-1FD929447A9A}"/>
   <tableColumns count="49">
     <tableColumn id="1" xr3:uid="{FB76208B-D917-437A-BD1B-B9DD5E467B0B}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{425CB150-0C59-4AAB-ABA6-2A0CB2352232}" uniqueName="2" name="DES_doc_1.txt" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{255E575F-15DD-4B97-A94A-C481AECF4E4A}" uniqueName="3" name="DES_doc_10.txt" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{F12F4890-F9DC-4E3E-93CF-89733A3E1A29}" uniqueName="4" name="DES_doc_11.txt" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{D6E43C61-F032-4CFA-867A-152B42A97359}" uniqueName="5" name="DES_doc_12.txt" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{F5A04B27-A3F5-42B7-BE34-CF785F3C6690}" uniqueName="6" name="DES_doc_13.txt" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{74FA676D-B4FD-4083-AD46-62D7995022D7}" uniqueName="7" name="DES_doc_14.txt" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{20DC6E69-112F-46CC-B91A-D07E0EC61914}" uniqueName="8" name="DES_doc_15.txt" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{3BC74486-166A-4437-A410-F9AE3790BD9C}" uniqueName="9" name="DES_doc_16.txt" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{3840E780-0F46-451D-8375-49C297759D52}" uniqueName="10" name="DES_doc_2.txt" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{62FB59ED-9C8A-4EB5-A1DF-CB775C3EC305}" uniqueName="11" name="DES_doc_3.txt" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{C3B2386D-24DB-40EC-A6E2-0DE42C3DD377}" uniqueName="12" name="DES_doc_4.txt" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{778FB52A-6E68-4D44-BEF7-21E00811B5CF}" uniqueName="13" name="DES_doc_5.txt" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{75E5F958-B1C2-4F7D-BD6E-3D041BFF5E49}" uniqueName="14" name="DES_doc_6.txt" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{7B50EB5D-708E-4666-A3E1-554A2B18A81F}" uniqueName="15" name="DES_doc_7.txt" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{B917C5DC-E484-477A-8860-84F6BD3AA319}" uniqueName="16" name="DES_doc_8.txt" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{2AE3A1EE-A2E5-4C4A-A91A-1B5BB5EE0B8E}" uniqueName="17" name="DES_doc_9.txt" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{3A4E650E-1681-4E06-B728-313DE7F4E556}" uniqueName="18" name="ElGamal_doc_1.txt" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{DB68A4AD-4DE9-466A-80FA-E00A46DB5B36}" uniqueName="19" name="ElGamal_doc_10.txt" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{D31D6F75-98F9-4721-9F17-2E2C51C8F7AA}" uniqueName="20" name="ElGamal_doc_11.txt" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{388D41CA-7123-45F5-8445-D113BFB4B793}" uniqueName="21" name="ElGamal_doc_12.txt" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{44491CBB-9F9A-4B89-AC38-13E21A8AA845}" uniqueName="22" name="ElGamal_doc_13.txt" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{61F17C8A-EAD1-4B64-BF9D-A4C6ED7D1B58}" uniqueName="23" name="ElGamal_doc_14.txt" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{2424BAD1-2D8E-478A-ADCA-0C2DEB968B2D}" uniqueName="24" name="ElGamal_doc_15.txt" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{35EC22FD-2ADC-4082-9959-17ED4CE4A64C}" uniqueName="25" name="ElGamal_doc_16.txt" queryTableFieldId="25"/>
-    <tableColumn id="26" xr3:uid="{55861C44-252E-46B2-8DBB-277C2B98758B}" uniqueName="26" name="ElGamal_doc_2.txt" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{B73608FA-75E7-4466-AFF5-10FD7FE1D0F7}" uniqueName="27" name="ElGamal_doc_3.txt" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{8E2CC673-D79A-4871-AB90-376F4EAF875D}" uniqueName="28" name="ElGamal_doc_4.txt" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{A81C2E05-3F61-471A-82E6-8A05EA043DF9}" uniqueName="29" name="ElGamal_doc_5.txt" queryTableFieldId="29"/>
-    <tableColumn id="30" xr3:uid="{D1EDF733-F64D-4006-8305-E4D61EBC4E24}" uniqueName="30" name="ElGamal_doc_6.txt" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{3A18D3BC-4E38-4B82-AB65-315C2F6EB9BC}" uniqueName="31" name="ElGamal_doc_7.txt" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{6E25AF24-C9E4-412B-88F3-2AC389DCBBFD}" uniqueName="32" name="ElGamal_doc_8.txt" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{F79F1B66-AE30-45B6-9439-DD7CC43D3854}" uniqueName="33" name="ElGamal_doc_9.txt" queryTableFieldId="33"/>
-    <tableColumn id="34" xr3:uid="{BFF43AE1-EF93-4943-A31E-DC5AA52F85C9}" uniqueName="34" name="RSA_doc_1.txt" queryTableFieldId="34"/>
-    <tableColumn id="35" xr3:uid="{C2463D0D-C1FB-4EB5-9FC5-EF4413D2CADD}" uniqueName="35" name="RSA_doc_10.txt" queryTableFieldId="35"/>
-    <tableColumn id="36" xr3:uid="{5B5E6B64-F2A0-4973-BBB6-E4C4F7E150D3}" uniqueName="36" name="RSA_doc_11.txt" queryTableFieldId="36"/>
-    <tableColumn id="37" xr3:uid="{28B0F963-EDD9-48F2-B553-DAEAFCE4B930}" uniqueName="37" name="RSA_doc_12.txt" queryTableFieldId="37"/>
-    <tableColumn id="38" xr3:uid="{71DBB673-A9E9-4EC5-A294-2E7C8A34B0EA}" uniqueName="38" name="RSA_doc_13.txt" queryTableFieldId="38"/>
-    <tableColumn id="39" xr3:uid="{6BBCAE24-F0C2-452A-B22C-F65E5C241174}" uniqueName="39" name="RSA_doc_14.txt" queryTableFieldId="39"/>
-    <tableColumn id="40" xr3:uid="{E0C5EABB-A723-48B4-91F4-B69455CB49FF}" uniqueName="40" name="RSA_doc_15.txt" queryTableFieldId="40"/>
-    <tableColumn id="41" xr3:uid="{A06565B0-0471-4A93-B729-867D67F20136}" uniqueName="41" name="RSA_doc_16.txt" queryTableFieldId="41"/>
-    <tableColumn id="42" xr3:uid="{67C50E81-E318-4FD6-A1C2-C142198A8B52}" uniqueName="42" name="RSA_doc_2.txt" queryTableFieldId="42"/>
-    <tableColumn id="43" xr3:uid="{46965FED-7309-47FF-8905-55B1017A1A27}" uniqueName="43" name="RSA_doc_3.txt" queryTableFieldId="43"/>
-    <tableColumn id="44" xr3:uid="{E9C8E829-3F28-42AE-B6A5-16B2EEE9A1DD}" uniqueName="44" name="RSA_doc_4.txt" queryTableFieldId="44"/>
-    <tableColumn id="45" xr3:uid="{A228D9A3-D1C6-4226-AD29-E99A904F8D3B}" uniqueName="45" name="RSA_doc_5.txt" queryTableFieldId="45"/>
-    <tableColumn id="46" xr3:uid="{7C3463D7-CB11-4E21-AEB8-3C91A70FCAFC}" uniqueName="46" name="RSA_doc_6.txt" queryTableFieldId="46"/>
-    <tableColumn id="47" xr3:uid="{08D402B9-5CB6-4143-AB24-512399C1F369}" uniqueName="47" name="RSA_doc_7.txt" queryTableFieldId="47"/>
-    <tableColumn id="48" xr3:uid="{1DC8ABF7-3890-46F3-BB9B-78175752C7F1}" uniqueName="48" name="RSA_doc_8.txt" queryTableFieldId="48"/>
-    <tableColumn id="49" xr3:uid="{2FC79EC8-1964-4E6E-BB80-3C548E12C710}" uniqueName="49" name="RSA_doc_9.txt" queryTableFieldId="49"/>
+    <tableColumn id="2" xr3:uid="{425CB150-0C59-4AAB-ABA6-2A0CB2352232}" uniqueName="2" name="DES_doc_1" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{255E575F-15DD-4B97-A94A-C481AECF4E4A}" uniqueName="3" name="DES_doc_2" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{F12F4890-F9DC-4E3E-93CF-89733A3E1A29}" uniqueName="4" name="DES_doc_3" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{D6E43C61-F032-4CFA-867A-152B42A97359}" uniqueName="5" name="DES_doc_4" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{F5A04B27-A3F5-42B7-BE34-CF785F3C6690}" uniqueName="6" name="DES_doc_5" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{74FA676D-B4FD-4083-AD46-62D7995022D7}" uniqueName="7" name="DES_doc_6" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{20DC6E69-112F-46CC-B91A-D07E0EC61914}" uniqueName="8" name="DES_doc_7" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{3BC74486-166A-4437-A410-F9AE3790BD9C}" uniqueName="9" name="DES_doc_8" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{3840E780-0F46-451D-8375-49C297759D52}" uniqueName="10" name="DES_doc_9" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{62FB59ED-9C8A-4EB5-A1DF-CB775C3EC305}" uniqueName="11" name="DES_doc_10" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{C3B2386D-24DB-40EC-A6E2-0DE42C3DD377}" uniqueName="12" name="DES_doc_11" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{778FB52A-6E68-4D44-BEF7-21E00811B5CF}" uniqueName="13" name="DES_doc_12" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{75E5F958-B1C2-4F7D-BD6E-3D041BFF5E49}" uniqueName="14" name="DES_doc_13" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{7B50EB5D-708E-4666-A3E1-554A2B18A81F}" uniqueName="15" name="DES_doc_14" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{B917C5DC-E484-477A-8860-84F6BD3AA319}" uniqueName="16" name="DES_doc_15" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{2AE3A1EE-A2E5-4C4A-A91A-1B5BB5EE0B8E}" uniqueName="17" name="DES_doc_16" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{3A4E650E-1681-4E06-B728-313DE7F4E556}" uniqueName="18" name="ElGamal_doc_1" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{DB68A4AD-4DE9-466A-80FA-E00A46DB5B36}" uniqueName="19" name="ElGamal_doc_2" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{D31D6F75-98F9-4721-9F17-2E2C51C8F7AA}" uniqueName="20" name="ElGamal_doc_3" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{388D41CA-7123-45F5-8445-D113BFB4B793}" uniqueName="21" name="ElGamal_doc_4" queryTableFieldId="21"/>
+    <tableColumn id="22" xr3:uid="{44491CBB-9F9A-4B89-AC38-13E21A8AA845}" uniqueName="22" name="ElGamal_doc_5" queryTableFieldId="22"/>
+    <tableColumn id="23" xr3:uid="{61F17C8A-EAD1-4B64-BF9D-A4C6ED7D1B58}" uniqueName="23" name="ElGamal_doc_6" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{2424BAD1-2D8E-478A-ADCA-0C2DEB968B2D}" uniqueName="24" name="ElGamal_doc_7" queryTableFieldId="24"/>
+    <tableColumn id="25" xr3:uid="{35EC22FD-2ADC-4082-9959-17ED4CE4A64C}" uniqueName="25" name="ElGamal_doc_8" queryTableFieldId="25"/>
+    <tableColumn id="26" xr3:uid="{55861C44-252E-46B2-8DBB-277C2B98758B}" uniqueName="26" name="ElGamal_doc_9" queryTableFieldId="26"/>
+    <tableColumn id="27" xr3:uid="{B73608FA-75E7-4466-AFF5-10FD7FE1D0F7}" uniqueName="27" name="ElGamal_doc_10" queryTableFieldId="27"/>
+    <tableColumn id="28" xr3:uid="{8E2CC673-D79A-4871-AB90-376F4EAF875D}" uniqueName="28" name="ElGamal_doc_11" queryTableFieldId="28"/>
+    <tableColumn id="29" xr3:uid="{A81C2E05-3F61-471A-82E6-8A05EA043DF9}" uniqueName="29" name="ElGamal_doc_12" queryTableFieldId="29"/>
+    <tableColumn id="30" xr3:uid="{D1EDF733-F64D-4006-8305-E4D61EBC4E24}" uniqueName="30" name="ElGamal_doc_13" queryTableFieldId="30"/>
+    <tableColumn id="31" xr3:uid="{3A18D3BC-4E38-4B82-AB65-315C2F6EB9BC}" uniqueName="31" name="ElGamal_doc_14" queryTableFieldId="31"/>
+    <tableColumn id="32" xr3:uid="{6E25AF24-C9E4-412B-88F3-2AC389DCBBFD}" uniqueName="32" name="ElGamal_doc_15" queryTableFieldId="32"/>
+    <tableColumn id="33" xr3:uid="{F79F1B66-AE30-45B6-9439-DD7CC43D3854}" uniqueName="33" name="ElGamal_doc_16" queryTableFieldId="33"/>
+    <tableColumn id="34" xr3:uid="{BFF43AE1-EF93-4943-A31E-DC5AA52F85C9}" uniqueName="34" name="RSA_doc_1" queryTableFieldId="34"/>
+    <tableColumn id="35" xr3:uid="{C2463D0D-C1FB-4EB5-9FC5-EF4413D2CADD}" uniqueName="35" name="RSA_doc_2" queryTableFieldId="35"/>
+    <tableColumn id="36" xr3:uid="{5B5E6B64-F2A0-4973-BBB6-E4C4F7E150D3}" uniqueName="36" name="RSA_doc_3" queryTableFieldId="36"/>
+    <tableColumn id="37" xr3:uid="{28B0F963-EDD9-48F2-B553-DAEAFCE4B930}" uniqueName="37" name="RSA_doc_4" queryTableFieldId="37"/>
+    <tableColumn id="38" xr3:uid="{71DBB673-A9E9-4EC5-A294-2E7C8A34B0EA}" uniqueName="38" name="RSA_doc_5" queryTableFieldId="38"/>
+    <tableColumn id="39" xr3:uid="{6BBCAE24-F0C2-452A-B22C-F65E5C241174}" uniqueName="39" name="RSA_doc_6" queryTableFieldId="39"/>
+    <tableColumn id="40" xr3:uid="{E0C5EABB-A723-48B4-91F4-B69455CB49FF}" uniqueName="40" name="RSA_doc_7" queryTableFieldId="40"/>
+    <tableColumn id="41" xr3:uid="{A06565B0-0471-4A93-B729-867D67F20136}" uniqueName="41" name="RSA_doc_8" queryTableFieldId="41"/>
+    <tableColumn id="42" xr3:uid="{67C50E81-E318-4FD6-A1C2-C142198A8B52}" uniqueName="42" name="RSA_doc_9" queryTableFieldId="42"/>
+    <tableColumn id="43" xr3:uid="{46965FED-7309-47FF-8905-55B1017A1A27}" uniqueName="43" name="RSA_doc_10" queryTableFieldId="43"/>
+    <tableColumn id="44" xr3:uid="{E9C8E829-3F28-42AE-B6A5-16B2EEE9A1DD}" uniqueName="44" name="RSA_doc_11" queryTableFieldId="44"/>
+    <tableColumn id="45" xr3:uid="{A228D9A3-D1C6-4226-AD29-E99A904F8D3B}" uniqueName="45" name="RSA_doc_12" queryTableFieldId="45"/>
+    <tableColumn id="46" xr3:uid="{7C3463D7-CB11-4E21-AEB8-3C91A70FCAFC}" uniqueName="46" name="RSA_doc_13" queryTableFieldId="46"/>
+    <tableColumn id="47" xr3:uid="{08D402B9-5CB6-4143-AB24-512399C1F369}" uniqueName="47" name="RSA_doc_14" queryTableFieldId="47"/>
+    <tableColumn id="48" xr3:uid="{1DC8ABF7-3890-46F3-BB9B-78175752C7F1}" uniqueName="48" name="RSA_doc_15" queryTableFieldId="48"/>
+    <tableColumn id="49" xr3:uid="{2FC79EC8-1964-4E6E-BB80-3C548E12C710}" uniqueName="49" name="RSA_doc_16" queryTableFieldId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -494,55 +493,55 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{271102E3-515A-4053-A159-2864EB8648D8}" name="Distancia_Euclidiana_16" displayName="Distancia_Euclidiana_16" ref="A1:AW49" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AW49" xr:uid="{BF1CC0F7-1A41-4463-A3B4-F7FBBF1A7CA7}"/>
   <tableColumns count="49">
-    <tableColumn id="1" xr3:uid="{885B3FB6-3947-41E3-8C3E-A82218CB8E76}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{074E7EA4-B266-4CC4-839D-CD1145F0E345}" uniqueName="2" name="DES_doc_1.txt" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{E1FF37A9-8554-4681-85C1-7E13FE59E0E2}" uniqueName="3" name="DES_doc_10.txt" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{12BA8FBF-8AAB-4B87-B324-F2FD08D7B821}" uniqueName="4" name="DES_doc_11.txt" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{4CC8576D-7C1A-4467-9EED-C8EB0E4670C8}" uniqueName="5" name="DES_doc_12.txt" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{25828E06-D4DA-40E7-8259-8CA355E5B92E}" uniqueName="6" name="DES_doc_13.txt" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{25401322-F218-46C6-88B3-D2F76BCFAC87}" uniqueName="7" name="DES_doc_14.txt" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{8CF73335-B5A7-4980-BC5B-0511BDA67790}" uniqueName="8" name="DES_doc_15.txt" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{9A16142A-0741-46BC-946B-099569C6DBCD}" uniqueName="9" name="DES_doc_16.txt" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{DA0A2007-2E31-405E-A238-C7E7C95EC32A}" uniqueName="10" name="DES_doc_2.txt" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{CA0373F0-C87D-4220-B137-45C67C3A03AB}" uniqueName="11" name="DES_doc_3.txt" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{C598E190-48EF-4124-AE67-D49A4C3D8F63}" uniqueName="12" name="DES_doc_4.txt" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{664CF07C-73D7-4F26-9A3D-D9937A76EE17}" uniqueName="13" name="DES_doc_5.txt" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E21D8953-3B6F-4FAF-B313-B8B4F5646292}" uniqueName="14" name="DES_doc_6.txt" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{CA0C8B03-FA84-4D8D-B1A7-3BE4E34C2011}" uniqueName="15" name="DES_doc_7.txt" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{00F1F364-A510-40C8-8679-DE7417ACFA5D}" uniqueName="16" name="DES_doc_8.txt" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{741E6CDD-8CD9-4F69-A620-FDD014846845}" uniqueName="17" name="DES_doc_9.txt" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{73B65E4C-4EFB-4D2A-843A-D74B66B46939}" uniqueName="18" name="ElGamal_doc_1.txt" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{90F3C6C8-5294-40AB-AD2F-35240A44E2D9}" uniqueName="19" name="ElGamal_doc_10.txt" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{BD8DDA16-CDB5-4501-AD52-68F4FFF8D4C1}" uniqueName="20" name="ElGamal_doc_11.txt" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{1BB4EAB0-A729-4B15-A864-5A3AFD6496E0}" uniqueName="21" name="ElGamal_doc_12.txt" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{50748C44-D986-433D-A367-1AAA612CEE28}" uniqueName="22" name="ElGamal_doc_13.txt" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{29D6ADE0-9B22-4ECB-923E-EBF3BCAC2A3C}" uniqueName="23" name="ElGamal_doc_14.txt" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{D40A5D59-FB40-4A36-A4E4-A89DD199326F}" uniqueName="24" name="ElGamal_doc_15.txt" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{81937DD3-F4E1-40D1-B120-4D02AFDD4D44}" uniqueName="25" name="ElGamal_doc_16.txt" queryTableFieldId="25"/>
-    <tableColumn id="26" xr3:uid="{50562B89-01B1-40B5-B43E-F7752FA542C2}" uniqueName="26" name="ElGamal_doc_2.txt" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{9D8CE45A-079C-482E-AB30-AB9A7F0F9AA5}" uniqueName="27" name="ElGamal_doc_3.txt" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{00DBDA58-9EF3-42BD-BCCA-52630D453D8C}" uniqueName="28" name="ElGamal_doc_4.txt" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{E1DAEE21-8AF9-4AB2-A809-38B27010BA4E}" uniqueName="29" name="ElGamal_doc_5.txt" queryTableFieldId="29"/>
-    <tableColumn id="30" xr3:uid="{03BCF3B2-1E6F-4B72-AE65-B8345099921D}" uniqueName="30" name="ElGamal_doc_6.txt" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{669206D9-3122-43C6-A9D0-CA95CF28CD31}" uniqueName="31" name="ElGamal_doc_7.txt" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{E478D542-8D42-4E70-A55E-CB419191D4CA}" uniqueName="32" name="ElGamal_doc_8.txt" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{75FAEFD4-2342-448F-A36D-7451532DB2EE}" uniqueName="33" name="ElGamal_doc_9.txt" queryTableFieldId="33"/>
-    <tableColumn id="34" xr3:uid="{DBBC6554-602F-491D-B8D3-2069B22A37F1}" uniqueName="34" name="RSA_doc_1.txt" queryTableFieldId="34"/>
-    <tableColumn id="35" xr3:uid="{0C4D7D01-EDC8-47FA-B17C-4A2BD995583E}" uniqueName="35" name="RSA_doc_10.txt" queryTableFieldId="35"/>
-    <tableColumn id="36" xr3:uid="{3C0F367B-E0BF-41CF-B0B8-F63F60BCD6D0}" uniqueName="36" name="RSA_doc_11.txt" queryTableFieldId="36"/>
-    <tableColumn id="37" xr3:uid="{2930BAF9-9A42-4DB6-8183-C97E3405DC91}" uniqueName="37" name="RSA_doc_12.txt" queryTableFieldId="37"/>
-    <tableColumn id="38" xr3:uid="{DCD5BFED-3B6C-4B14-B985-B6F5BCA42FFE}" uniqueName="38" name="RSA_doc_13.txt" queryTableFieldId="38"/>
-    <tableColumn id="39" xr3:uid="{8FBEAB65-C192-4707-8731-1B006828F8F0}" uniqueName="39" name="RSA_doc_14.txt" queryTableFieldId="39"/>
-    <tableColumn id="40" xr3:uid="{A5AF7647-2E59-497B-B0CB-C683E2CDCF49}" uniqueName="40" name="RSA_doc_15.txt" queryTableFieldId="40"/>
-    <tableColumn id="41" xr3:uid="{7124CDD3-8DD7-4308-B6E3-28AA6B333646}" uniqueName="41" name="RSA_doc_16.txt" queryTableFieldId="41"/>
-    <tableColumn id="42" xr3:uid="{4BB5B458-6B76-42E1-B963-ED80E42CBC9A}" uniqueName="42" name="RSA_doc_2.txt" queryTableFieldId="42"/>
-    <tableColumn id="43" xr3:uid="{09BA199B-8997-4E3C-AB54-391981E503E1}" uniqueName="43" name="RSA_doc_3.txt" queryTableFieldId="43"/>
-    <tableColumn id="44" xr3:uid="{36476415-1B30-4FC4-BAB9-CEA1BC8B91A1}" uniqueName="44" name="RSA_doc_4.txt" queryTableFieldId="44"/>
-    <tableColumn id="45" xr3:uid="{FBD66931-71F5-46D1-AE1E-DFA4B51A31B2}" uniqueName="45" name="RSA_doc_5.txt" queryTableFieldId="45"/>
-    <tableColumn id="46" xr3:uid="{EA2D0BC3-0A8C-4AC3-98B7-1E1E0C9ADF80}" uniqueName="46" name="RSA_doc_6.txt" queryTableFieldId="46"/>
-    <tableColumn id="47" xr3:uid="{A47862E4-214B-4061-A114-F0C3809C8E6E}" uniqueName="47" name="RSA_doc_7.txt" queryTableFieldId="47"/>
-    <tableColumn id="48" xr3:uid="{D66D32B8-7659-4577-A327-867898539526}" uniqueName="48" name="RSA_doc_8.txt" queryTableFieldId="48"/>
-    <tableColumn id="49" xr3:uid="{6E92CDFB-7598-46E5-B0B3-CC43A2A0A88B}" uniqueName="49" name="RSA_doc_9.txt" queryTableFieldId="49"/>
+    <tableColumn id="1" xr3:uid="{885B3FB6-3947-41E3-8C3E-A82218CB8E76}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{074E7EA4-B266-4CC4-839D-CD1145F0E345}" uniqueName="2" name="DES_doc_1" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{E1FF37A9-8554-4681-85C1-7E13FE59E0E2}" uniqueName="3" name="DES_doc_2" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{12BA8FBF-8AAB-4B87-B324-F2FD08D7B821}" uniqueName="4" name="DES_doc_3" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{4CC8576D-7C1A-4467-9EED-C8EB0E4670C8}" uniqueName="5" name="DES_doc_4" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{25828E06-D4DA-40E7-8259-8CA355E5B92E}" uniqueName="6" name="DES_doc_5" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{25401322-F218-46C6-88B3-D2F76BCFAC87}" uniqueName="7" name="DES_doc_6" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{8CF73335-B5A7-4980-BC5B-0511BDA67790}" uniqueName="8" name="DES_doc_7" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{9A16142A-0741-46BC-946B-099569C6DBCD}" uniqueName="9" name="DES_doc_8" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{DA0A2007-2E31-405E-A238-C7E7C95EC32A}" uniqueName="10" name="DES_doc_9" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{CA0373F0-C87D-4220-B137-45C67C3A03AB}" uniqueName="11" name="DES_doc_10" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{C598E190-48EF-4124-AE67-D49A4C3D8F63}" uniqueName="12" name="DES_doc_11" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{664CF07C-73D7-4F26-9A3D-D9937A76EE17}" uniqueName="13" name="DES_doc_12" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{E21D8953-3B6F-4FAF-B313-B8B4F5646292}" uniqueName="14" name="DES_doc_13" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{CA0C8B03-FA84-4D8D-B1A7-3BE4E34C2011}" uniqueName="15" name="DES_doc_14" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{00F1F364-A510-40C8-8679-DE7417ACFA5D}" uniqueName="16" name="DES_doc_15" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{741E6CDD-8CD9-4F69-A620-FDD014846845}" uniqueName="17" name="DES_doc_16" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{73B65E4C-4EFB-4D2A-843A-D74B66B46939}" uniqueName="18" name="ElGamal_doc_1" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{90F3C6C8-5294-40AB-AD2F-35240A44E2D9}" uniqueName="19" name="ElGamal_doc_2" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{BD8DDA16-CDB5-4501-AD52-68F4FFF8D4C1}" uniqueName="20" name="ElGamal_doc_3" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{1BB4EAB0-A729-4B15-A864-5A3AFD6496E0}" uniqueName="21" name="ElGamal_doc_4" queryTableFieldId="21"/>
+    <tableColumn id="22" xr3:uid="{50748C44-D986-433D-A367-1AAA612CEE28}" uniqueName="22" name="ElGamal_doc_5" queryTableFieldId="22"/>
+    <tableColumn id="23" xr3:uid="{29D6ADE0-9B22-4ECB-923E-EBF3BCAC2A3C}" uniqueName="23" name="ElGamal_doc_6" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{D40A5D59-FB40-4A36-A4E4-A89DD199326F}" uniqueName="24" name="ElGamal_doc_7" queryTableFieldId="24"/>
+    <tableColumn id="25" xr3:uid="{81937DD3-F4E1-40D1-B120-4D02AFDD4D44}" uniqueName="25" name="ElGamal_doc_8" queryTableFieldId="25"/>
+    <tableColumn id="26" xr3:uid="{50562B89-01B1-40B5-B43E-F7752FA542C2}" uniqueName="26" name="ElGamal_doc_9" queryTableFieldId="26"/>
+    <tableColumn id="27" xr3:uid="{9D8CE45A-079C-482E-AB30-AB9A7F0F9AA5}" uniqueName="27" name="ElGamal_doc_10" queryTableFieldId="27"/>
+    <tableColumn id="28" xr3:uid="{00DBDA58-9EF3-42BD-BCCA-52630D453D8C}" uniqueName="28" name="ElGamal_doc_11" queryTableFieldId="28"/>
+    <tableColumn id="29" xr3:uid="{E1DAEE21-8AF9-4AB2-A809-38B27010BA4E}" uniqueName="29" name="ElGamal_doc_12" queryTableFieldId="29"/>
+    <tableColumn id="30" xr3:uid="{03BCF3B2-1E6F-4B72-AE65-B8345099921D}" uniqueName="30" name="ElGamal_doc_13" queryTableFieldId="30"/>
+    <tableColumn id="31" xr3:uid="{669206D9-3122-43C6-A9D0-CA95CF28CD31}" uniqueName="31" name="ElGamal_doc_14" queryTableFieldId="31"/>
+    <tableColumn id="32" xr3:uid="{E478D542-8D42-4E70-A55E-CB419191D4CA}" uniqueName="32" name="ElGamal_doc_15" queryTableFieldId="32"/>
+    <tableColumn id="33" xr3:uid="{75FAEFD4-2342-448F-A36D-7451532DB2EE}" uniqueName="33" name="ElGamal_doc_16" queryTableFieldId="33"/>
+    <tableColumn id="34" xr3:uid="{DBBC6554-602F-491D-B8D3-2069B22A37F1}" uniqueName="34" name="RSA_doc_1" queryTableFieldId="34"/>
+    <tableColumn id="35" xr3:uid="{0C4D7D01-EDC8-47FA-B17C-4A2BD995583E}" uniqueName="35" name="RSA_doc_2" queryTableFieldId="35"/>
+    <tableColumn id="36" xr3:uid="{3C0F367B-E0BF-41CF-B0B8-F63F60BCD6D0}" uniqueName="36" name="RSA_doc_3" queryTableFieldId="36"/>
+    <tableColumn id="37" xr3:uid="{2930BAF9-9A42-4DB6-8183-C97E3405DC91}" uniqueName="37" name="RSA_doc_4" queryTableFieldId="37"/>
+    <tableColumn id="38" xr3:uid="{DCD5BFED-3B6C-4B14-B985-B6F5BCA42FFE}" uniqueName="38" name="RSA_doc_5" queryTableFieldId="38"/>
+    <tableColumn id="39" xr3:uid="{8FBEAB65-C192-4707-8731-1B006828F8F0}" uniqueName="39" name="RSA_doc_6" queryTableFieldId="39"/>
+    <tableColumn id="40" xr3:uid="{A5AF7647-2E59-497B-B0CB-C683E2CDCF49}" uniqueName="40" name="RSA_doc_7" queryTableFieldId="40"/>
+    <tableColumn id="41" xr3:uid="{7124CDD3-8DD7-4308-B6E3-28AA6B333646}" uniqueName="41" name="RSA_doc_8" queryTableFieldId="41"/>
+    <tableColumn id="42" xr3:uid="{4BB5B458-6B76-42E1-B963-ED80E42CBC9A}" uniqueName="42" name="RSA_doc_9" queryTableFieldId="42"/>
+    <tableColumn id="43" xr3:uid="{09BA199B-8997-4E3C-AB54-391981E503E1}" uniqueName="43" name="RSA_doc_10" queryTableFieldId="43"/>
+    <tableColumn id="44" xr3:uid="{36476415-1B30-4FC4-BAB9-CEA1BC8B91A1}" uniqueName="44" name="RSA_doc_11" queryTableFieldId="44"/>
+    <tableColumn id="45" xr3:uid="{FBD66931-71F5-46D1-AE1E-DFA4B51A31B2}" uniqueName="45" name="RSA_doc_12" queryTableFieldId="45"/>
+    <tableColumn id="46" xr3:uid="{EA2D0BC3-0A8C-4AC3-98B7-1E1E0C9ADF80}" uniqueName="46" name="RSA_doc_13" queryTableFieldId="46"/>
+    <tableColumn id="47" xr3:uid="{A47862E4-214B-4061-A114-F0C3809C8E6E}" uniqueName="47" name="RSA_doc_14" queryTableFieldId="47"/>
+    <tableColumn id="48" xr3:uid="{D66D32B8-7659-4577-A327-867898539526}" uniqueName="48" name="RSA_doc_15" queryTableFieldId="48"/>
+    <tableColumn id="49" xr3:uid="{6E92CDFB-7598-46E5-B0B3-CC43A2A0A88B}" uniqueName="49" name="RSA_doc_16" queryTableFieldId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -552,55 +551,55 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{262F9AC2-BA4E-43B8-A643-126E8907AAF5}" name="Coeficiente_Dice_16" displayName="Coeficiente_Dice_16" ref="A1:AW49" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AW49" xr:uid="{FD6498F8-BFA6-4567-83B0-3F6044F44EF8}"/>
   <tableColumns count="49">
-    <tableColumn id="1" xr3:uid="{15595B28-44B4-41F9-9394-31012E52A8C8}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{DA7087AE-9F56-495F-B3E4-E26F3534FF2F}" uniqueName="2" name="DES_doc_1.txt" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{99FDDC62-9ECF-410F-B963-D40DACFB11ED}" uniqueName="3" name="DES_doc_10.txt" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{2D015A3A-DC67-46A4-9E5E-D31F594BBCAC}" uniqueName="4" name="DES_doc_11.txt" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{892E03A4-A4EA-4FBF-ABE1-D3144C1FC2AE}" uniqueName="5" name="DES_doc_12.txt" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{0445BBFB-FCFD-4B33-96A0-96EB924CC7EC}" uniqueName="6" name="DES_doc_13.txt" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{2F72F10A-EFB9-4F99-902D-A2EE3584E9AE}" uniqueName="7" name="DES_doc_14.txt" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{E0612357-D054-4132-84BB-374562FBDD58}" uniqueName="8" name="DES_doc_15.txt" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{4A3046A2-A169-43A4-AC36-0D6E6C3FAD14}" uniqueName="9" name="DES_doc_16.txt" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{C630F1C9-F5E7-4E68-85C2-F25B2617EACD}" uniqueName="10" name="DES_doc_2.txt" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{A94B6D8C-7D7E-466D-AA6E-F7C849BAAD40}" uniqueName="11" name="DES_doc_3.txt" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{EFE28BFE-AD5D-4386-840E-E2C1E89217CE}" uniqueName="12" name="DES_doc_4.txt" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{5E2454FB-F44A-4AF4-BF0A-630B79E610A1}" uniqueName="13" name="DES_doc_5.txt" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{FAD7AE83-191D-4B5A-A6D5-B0A52DB00EEA}" uniqueName="14" name="DES_doc_6.txt" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{431C08DD-C649-4139-9F85-E8C313E9A958}" uniqueName="15" name="DES_doc_7.txt" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{B561B0F1-7C76-4A2E-B9EA-90A8BC08ED9A}" uniqueName="16" name="DES_doc_8.txt" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{FB442EE8-FF70-486D-9810-1B354BEFAC5C}" uniqueName="17" name="DES_doc_9.txt" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{FB20BA9A-1031-4F5D-87A3-0548AA4C5DFD}" uniqueName="18" name="ElGamal_doc_1.txt" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{15D9924E-ED18-4AEC-8159-3FE3B4974AF9}" uniqueName="19" name="ElGamal_doc_10.txt" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{12E69724-2AAA-4050-86C6-4EA49EAA5EC4}" uniqueName="20" name="ElGamal_doc_11.txt" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{4C1B29F0-7AEF-474A-8D05-914EFA26A1EE}" uniqueName="21" name="ElGamal_doc_12.txt" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{B329ACB8-A7F5-4617-9103-0DD00C1B9842}" uniqueName="22" name="ElGamal_doc_13.txt" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{DC3736A1-EE54-40E0-8C11-F4B49C2742C7}" uniqueName="23" name="ElGamal_doc_14.txt" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{F463CC5F-8D8B-41A9-8D08-8BF6AD8CEB52}" uniqueName="24" name="ElGamal_doc_15.txt" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{153147CE-B1F8-4972-88A8-5885451266BF}" uniqueName="25" name="ElGamal_doc_16.txt" queryTableFieldId="25"/>
-    <tableColumn id="26" xr3:uid="{7AF5BA34-1BEE-46C1-AA07-2CF3F9DFC7CA}" uniqueName="26" name="ElGamal_doc_2.txt" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{05CB648B-D733-4A37-A387-6B058C39F86E}" uniqueName="27" name="ElGamal_doc_3.txt" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{4F531FF9-1F00-4F8C-9F93-04960B10A4DE}" uniqueName="28" name="ElGamal_doc_4.txt" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{B75ABBA2-1D7C-4D34-8048-859359D30C7A}" uniqueName="29" name="ElGamal_doc_5.txt" queryTableFieldId="29"/>
-    <tableColumn id="30" xr3:uid="{4568CA61-D8A6-4482-9C7E-A80FD5941100}" uniqueName="30" name="ElGamal_doc_6.txt" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{24AC2A85-28FD-4B45-91B2-FD048516ADCA}" uniqueName="31" name="ElGamal_doc_7.txt" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{8CBE647E-601B-4BA2-9F02-3DFC51E22C07}" uniqueName="32" name="ElGamal_doc_8.txt" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{B740BCE5-0C2B-459C-81FB-1CE51A9125C1}" uniqueName="33" name="ElGamal_doc_9.txt" queryTableFieldId="33"/>
-    <tableColumn id="34" xr3:uid="{A9B9BAB6-A8F5-4E1B-B25F-8FEBFD1E1243}" uniqueName="34" name="RSA_doc_1.txt" queryTableFieldId="34"/>
-    <tableColumn id="35" xr3:uid="{5EA979A7-A099-4DDB-8445-33B115074F55}" uniqueName="35" name="RSA_doc_10.txt" queryTableFieldId="35"/>
-    <tableColumn id="36" xr3:uid="{792D755B-6C19-4C81-8907-19FECD1B29E1}" uniqueName="36" name="RSA_doc_11.txt" queryTableFieldId="36"/>
-    <tableColumn id="37" xr3:uid="{F5DD56F9-E841-4924-8319-7CBFD3591200}" uniqueName="37" name="RSA_doc_12.txt" queryTableFieldId="37"/>
-    <tableColumn id="38" xr3:uid="{CB6869E4-2A3B-4B25-B13A-1A3B3638B0CB}" uniqueName="38" name="RSA_doc_13.txt" queryTableFieldId="38"/>
-    <tableColumn id="39" xr3:uid="{513F21DF-64D6-4233-B9BB-A719295CE425}" uniqueName="39" name="RSA_doc_14.txt" queryTableFieldId="39"/>
-    <tableColumn id="40" xr3:uid="{0F90D21B-278B-40C3-B507-BA8EF019E4DE}" uniqueName="40" name="RSA_doc_15.txt" queryTableFieldId="40"/>
-    <tableColumn id="41" xr3:uid="{A0CD6AA5-8A49-4FCD-8696-4E5060CECB7E}" uniqueName="41" name="RSA_doc_16.txt" queryTableFieldId="41"/>
-    <tableColumn id="42" xr3:uid="{C6D16022-C366-4505-A94B-EF7D04F73C1A}" uniqueName="42" name="RSA_doc_2.txt" queryTableFieldId="42"/>
-    <tableColumn id="43" xr3:uid="{1D846A52-64C4-44B5-8B83-F27DFB513347}" uniqueName="43" name="RSA_doc_3.txt" queryTableFieldId="43"/>
-    <tableColumn id="44" xr3:uid="{997C4A33-E098-448B-9A2A-0F2A1A8669A7}" uniqueName="44" name="RSA_doc_4.txt" queryTableFieldId="44"/>
-    <tableColumn id="45" xr3:uid="{BC2183AD-E4AF-439C-ABE2-12D8325AFF0D}" uniqueName="45" name="RSA_doc_5.txt" queryTableFieldId="45"/>
-    <tableColumn id="46" xr3:uid="{517B0B7B-C067-4D30-88DF-18BDCABC8059}" uniqueName="46" name="RSA_doc_6.txt" queryTableFieldId="46"/>
-    <tableColumn id="47" xr3:uid="{29EE1813-70F4-4791-ABE4-4DFC35144732}" uniqueName="47" name="RSA_doc_7.txt" queryTableFieldId="47"/>
-    <tableColumn id="48" xr3:uid="{8AF1CCE5-56E1-4D87-8128-46F860FF8C96}" uniqueName="48" name="RSA_doc_8.txt" queryTableFieldId="48"/>
-    <tableColumn id="49" xr3:uid="{A3C73312-8543-4233-8E56-4321A9B79E01}" uniqueName="49" name="RSA_doc_9.txt" queryTableFieldId="49"/>
+    <tableColumn id="1" xr3:uid="{15595B28-44B4-41F9-9394-31012E52A8C8}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{DA7087AE-9F56-495F-B3E4-E26F3534FF2F}" uniqueName="2" name="DES_doc_1" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{99FDDC62-9ECF-410F-B963-D40DACFB11ED}" uniqueName="3" name="DES_doc_2" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{2D015A3A-DC67-46A4-9E5E-D31F594BBCAC}" uniqueName="4" name="DES_doc_3" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{892E03A4-A4EA-4FBF-ABE1-D3144C1FC2AE}" uniqueName="5" name="DES_doc_4" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{0445BBFB-FCFD-4B33-96A0-96EB924CC7EC}" uniqueName="6" name="DES_doc_5" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{2F72F10A-EFB9-4F99-902D-A2EE3584E9AE}" uniqueName="7" name="DES_doc_6" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{E0612357-D054-4132-84BB-374562FBDD58}" uniqueName="8" name="DES_doc_7" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{4A3046A2-A169-43A4-AC36-0D6E6C3FAD14}" uniqueName="9" name="DES_doc_8" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{C630F1C9-F5E7-4E68-85C2-F25B2617EACD}" uniqueName="10" name="DES_doc_9" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{A94B6D8C-7D7E-466D-AA6E-F7C849BAAD40}" uniqueName="11" name="DES_doc_10" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{EFE28BFE-AD5D-4386-840E-E2C1E89217CE}" uniqueName="12" name="DES_doc_11" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{5E2454FB-F44A-4AF4-BF0A-630B79E610A1}" uniqueName="13" name="DES_doc_12" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{FAD7AE83-191D-4B5A-A6D5-B0A52DB00EEA}" uniqueName="14" name="DES_doc_13" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{431C08DD-C649-4139-9F85-E8C313E9A958}" uniqueName="15" name="DES_doc_14" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{B561B0F1-7C76-4A2E-B9EA-90A8BC08ED9A}" uniqueName="16" name="DES_doc_15" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{FB442EE8-FF70-486D-9810-1B354BEFAC5C}" uniqueName="17" name="DES_doc_16" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{FB20BA9A-1031-4F5D-87A3-0548AA4C5DFD}" uniqueName="18" name="ElGamal_doc_1" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{15D9924E-ED18-4AEC-8159-3FE3B4974AF9}" uniqueName="19" name="ElGamal_doc_2" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{12E69724-2AAA-4050-86C6-4EA49EAA5EC4}" uniqueName="20" name="ElGamal_doc_3" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{4C1B29F0-7AEF-474A-8D05-914EFA26A1EE}" uniqueName="21" name="ElGamal_doc_4" queryTableFieldId="21"/>
+    <tableColumn id="22" xr3:uid="{B329ACB8-A7F5-4617-9103-0DD00C1B9842}" uniqueName="22" name="ElGamal_doc_5" queryTableFieldId="22"/>
+    <tableColumn id="23" xr3:uid="{DC3736A1-EE54-40E0-8C11-F4B49C2742C7}" uniqueName="23" name="ElGamal_doc_6" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{F463CC5F-8D8B-41A9-8D08-8BF6AD8CEB52}" uniqueName="24" name="ElGamal_doc_7" queryTableFieldId="24"/>
+    <tableColumn id="25" xr3:uid="{153147CE-B1F8-4972-88A8-5885451266BF}" uniqueName="25" name="ElGamal_doc_8" queryTableFieldId="25"/>
+    <tableColumn id="26" xr3:uid="{7AF5BA34-1BEE-46C1-AA07-2CF3F9DFC7CA}" uniqueName="26" name="ElGamal_doc_9" queryTableFieldId="26"/>
+    <tableColumn id="27" xr3:uid="{05CB648B-D733-4A37-A387-6B058C39F86E}" uniqueName="27" name="ElGamal_doc_10" queryTableFieldId="27"/>
+    <tableColumn id="28" xr3:uid="{4F531FF9-1F00-4F8C-9F93-04960B10A4DE}" uniqueName="28" name="ElGamal_doc_11" queryTableFieldId="28"/>
+    <tableColumn id="29" xr3:uid="{B75ABBA2-1D7C-4D34-8048-859359D30C7A}" uniqueName="29" name="ElGamal_doc_12" queryTableFieldId="29"/>
+    <tableColumn id="30" xr3:uid="{4568CA61-D8A6-4482-9C7E-A80FD5941100}" uniqueName="30" name="ElGamal_doc_13" queryTableFieldId="30"/>
+    <tableColumn id="31" xr3:uid="{24AC2A85-28FD-4B45-91B2-FD048516ADCA}" uniqueName="31" name="ElGamal_doc_14" queryTableFieldId="31"/>
+    <tableColumn id="32" xr3:uid="{8CBE647E-601B-4BA2-9F02-3DFC51E22C07}" uniqueName="32" name="ElGamal_doc_15" queryTableFieldId="32"/>
+    <tableColumn id="33" xr3:uid="{B740BCE5-0C2B-459C-81FB-1CE51A9125C1}" uniqueName="33" name="ElGamal_doc_16" queryTableFieldId="33"/>
+    <tableColumn id="34" xr3:uid="{A9B9BAB6-A8F5-4E1B-B25F-8FEBFD1E1243}" uniqueName="34" name="RSA_doc_1" queryTableFieldId="34"/>
+    <tableColumn id="35" xr3:uid="{5EA979A7-A099-4DDB-8445-33B115074F55}" uniqueName="35" name="RSA_doc_2" queryTableFieldId="35"/>
+    <tableColumn id="36" xr3:uid="{792D755B-6C19-4C81-8907-19FECD1B29E1}" uniqueName="36" name="RSA_doc_3" queryTableFieldId="36"/>
+    <tableColumn id="37" xr3:uid="{F5DD56F9-E841-4924-8319-7CBFD3591200}" uniqueName="37" name="RSA_doc_4" queryTableFieldId="37"/>
+    <tableColumn id="38" xr3:uid="{CB6869E4-2A3B-4B25-B13A-1A3B3638B0CB}" uniqueName="38" name="RSA_doc_5" queryTableFieldId="38"/>
+    <tableColumn id="39" xr3:uid="{513F21DF-64D6-4233-B9BB-A719295CE425}" uniqueName="39" name="RSA_doc_6" queryTableFieldId="39"/>
+    <tableColumn id="40" xr3:uid="{0F90D21B-278B-40C3-B507-BA8EF019E4DE}" uniqueName="40" name="RSA_doc_7" queryTableFieldId="40"/>
+    <tableColumn id="41" xr3:uid="{A0CD6AA5-8A49-4FCD-8696-4E5060CECB7E}" uniqueName="41" name="RSA_doc_8" queryTableFieldId="41"/>
+    <tableColumn id="42" xr3:uid="{C6D16022-C366-4505-A94B-EF7D04F73C1A}" uniqueName="42" name="RSA_doc_9" queryTableFieldId="42"/>
+    <tableColumn id="43" xr3:uid="{1D846A52-64C4-44B5-8B83-F27DFB513347}" uniqueName="43" name="RSA_doc_10" queryTableFieldId="43"/>
+    <tableColumn id="44" xr3:uid="{997C4A33-E098-448B-9A2A-0F2A1A8669A7}" uniqueName="44" name="RSA_doc_11" queryTableFieldId="44"/>
+    <tableColumn id="45" xr3:uid="{BC2183AD-E4AF-439C-ABE2-12D8325AFF0D}" uniqueName="45" name="RSA_doc_12" queryTableFieldId="45"/>
+    <tableColumn id="46" xr3:uid="{517B0B7B-C067-4D30-88DF-18BDCABC8059}" uniqueName="46" name="RSA_doc_13" queryTableFieldId="46"/>
+    <tableColumn id="47" xr3:uid="{29EE1813-70F4-4791-ABE4-4DFC35144732}" uniqueName="47" name="RSA_doc_14" queryTableFieldId="47"/>
+    <tableColumn id="48" xr3:uid="{8AF1CCE5-56E1-4D87-8128-46F860FF8C96}" uniqueName="48" name="RSA_doc_15" queryTableFieldId="48"/>
+    <tableColumn id="49" xr3:uid="{A3C73312-8543-4233-8E56-4321A9B79E01}" uniqueName="49" name="RSA_doc_16" queryTableFieldId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -871,23 +870,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B9A227-362F-4522-8F63-4642DCBA554F}">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="49" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="49" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1035,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1185,8 +1184,8 @@
         <v>0.33832040327399998</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1334,8 +1333,8 @@
         <v>0.39780862987600002</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1483,8 +1482,8 @@
         <v>0.33227691099399997</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1632,8 +1631,8 @@
         <v>0.33739095006600001</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1781,8 +1780,8 @@
         <v>0.33940560849599999</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1930,8 +1929,8 @@
         <v>0.34209377701299998</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2079,8 +2078,8 @@
         <v>0.363659330286</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2228,8 +2227,8 @@
         <v>0.34776044422899999</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -2377,8 +2376,8 @@
         <v>0.42181353585499998</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2526,8 +2525,8 @@
         <v>0.33709623178100001</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2675,8 +2674,8 @@
         <v>0.31762999738499997</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2824,8 +2823,8 @@
         <v>0.38231319494499999</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2973,8 +2972,8 @@
         <v>0.31583755570599997</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -3122,8 +3121,8 @@
         <v>0.33976564092700001</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -3271,8 +3270,8 @@
         <v>0.33947958450799998</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -3420,8 +3419,8 @@
         <v>0.330626966056</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3569,8 +3568,8 @@
         <v>0.64610584088300005</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -3718,8 +3717,8 @@
         <v>0.64781080140699998</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3867,8 +3866,8 @@
         <v>0.64787940142099998</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -4016,8 +4015,8 @@
         <v>0.64911703878600002</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -4165,8 +4164,8 @@
         <v>0.64941915610199996</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -4314,8 +4313,8 @@
         <v>0.65212614605700003</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -4463,8 +4462,8 @@
         <v>0.65204842385899997</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -4612,8 +4611,8 @@
         <v>0.64937541068100002</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -4761,8 +4760,8 @@
         <v>0.641112136138</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -4910,8 +4909,8 @@
         <v>0.64855453780899996</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -5059,8 +5058,8 @@
         <v>0.64913529467999997</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -5208,8 +5207,8 @@
         <v>0.65070192243799996</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -5357,8 +5356,8 @@
         <v>0.64618983814300002</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -5506,8 +5505,8 @@
         <v>0.64920953562299999</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -5655,8 +5654,8 @@
         <v>0.65341289365900002</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -5804,8 +5803,8 @@
         <v>0.65004172928699999</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -5953,8 +5952,8 @@
         <v>0.65818506993400006</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -6102,8 +6101,8 @@
         <v>0.65824560948400002</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -6251,8 +6250,8 @@
         <v>0.65722925641800001</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -6400,8 +6399,8 @@
         <v>0.65558052038400005</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -6549,8 +6548,8 @@
         <v>0.65700389566899997</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -6698,8 +6697,8 @@
         <v>0.65611916131299997</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -6847,8 +6846,8 @@
         <v>0.65555678021999997</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -6996,8 +6995,8 @@
         <v>0.657704507203</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -7145,8 +7144,8 @@
         <v>0.65735103595900002</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -7294,8 +7293,8 @@
         <v>0.65751311564199999</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -7443,8 +7442,8 @@
         <v>0.65587396613000004</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -7592,8 +7591,8 @@
         <v>0.65567818860899996</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -7741,8 +7740,8 @@
         <v>0.65604123629900002</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -7890,8 +7889,8 @@
         <v>0.65624949458500004</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -8039,8 +8038,8 @@
         <v>0.657520455527</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -8200,23 +8199,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051CD857-7316-424E-BE99-61FB476462DF}">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AW1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="49" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="49" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8365,8 +8366,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -8514,8 +8515,8 @@
         <v>1116.4183803599999</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -8663,8 +8664,8 @@
         <v>935.88674528499996</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -8812,8 +8813,8 @@
         <v>1140.6866353200001</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -8961,8 +8962,8 @@
         <v>1124.8102062099999</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -9110,8 +9111,8 @@
         <v>1116.51690538</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -9259,8 +9260,8 @@
         <v>1102.0499081299999</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -9408,8 +9409,8 @@
         <v>1031.71216916</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -9557,8 +9558,8 @@
         <v>1085.3054869499999</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -9706,8 +9707,8 @@
         <v>873.34643756100002</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -9855,8 +9856,8 @@
         <v>1121.9188919000001</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -10004,8 +10005,8 @@
         <v>1197.2844273600001</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -10153,8 +10154,8 @@
         <v>977.63899267600004</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -10302,8 +10303,8 @@
         <v>1209.25679655</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -10451,8 +10452,8 @@
         <v>1115.0910276699999</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -10600,8 +10601,8 @@
         <v>1113.3184629699999</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -10749,8 +10750,8 @@
         <v>1149.16491419</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -10898,8 +10899,8 @@
         <v>511.05185646899997</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -11047,8 +11048,8 @@
         <v>508.519419492</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -11196,8 +11197,8 @@
         <v>508.222392265</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -11345,8 +11346,8 @@
         <v>507.52142811900001</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -11494,8 +11495,8 @@
         <v>507.54310161799998</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -11643,8 +11644,8 @@
         <v>504.34115437899999</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -11792,8 +11793,8 @@
         <v>504.35701640799999</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -11941,8 +11942,8 @@
         <v>507.885813939</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -12090,8 +12091,8 @@
         <v>517.31035172300005</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -12239,8 +12240,8 @@
         <v>507.92519134200001</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -12388,8 +12389,8 @@
         <v>506.57872043700002</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -12537,8 +12538,8 @@
         <v>505.80430998600002</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -12686,8 +12687,8 @@
         <v>510.36457557300002</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -12835,8 +12836,8 @@
         <v>508.25387357099999</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -12984,8 +12985,8 @@
         <v>503.68641037899999</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -13133,8 +13134,8 @@
         <v>506.63793778199999</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -13282,8 +13283,8 @@
         <v>498.3031206</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -13431,8 +13432,8 @@
         <v>498.05822952699998</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -13580,8 +13581,8 @@
         <v>499.429674729</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -13729,8 +13730,8 @@
         <v>500.38185418699999</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -13878,8 +13879,8 @@
         <v>498.55792040599999</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -14027,8 +14028,8 @@
         <v>499.84797688899999</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -14176,8 +14177,8 @@
         <v>500.53970871500002</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -14325,8 +14326,8 @@
         <v>499.031061158</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -14474,8 +14475,8 @@
         <v>498.73640332299999</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -14623,8 +14624,8 @@
         <v>498.73640332299999</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -14772,8 +14773,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -14921,8 +14922,8 @@
         <v>500.259932435</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -15070,8 +15071,8 @@
         <v>499.49574572799997</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -15219,8 +15220,8 @@
         <v>499.90599116200002</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -15368,8 +15369,8 @@
         <v>498.882751756</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -15529,23 +15530,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B022D-24DE-4A49-834C-0977B31899E1}">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AW1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="49" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="49" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15694,8 +15697,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -15843,8 +15846,8 @@
         <v>0.276086140865</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -15992,8 +15995,8 @@
         <v>0.35261170035799999</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -16141,8 +16144,8 @@
         <v>0.26798386506999999</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -16290,8 +16293,8 @@
         <v>0.27409373454500002</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -16439,8 +16442,8 @@
         <v>0.27684711118200001</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -16588,8 +16591,8 @@
         <v>0.28110168638799998</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -16737,8 +16740,8 @@
         <v>0.30879732565899998</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -16886,8 +16889,8 @@
         <v>0.28794013775900001</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -17035,8 +17038,8 @@
         <v>0.38410517952000001</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -17184,8 +17187,8 @@
         <v>0.27433931371600001</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -17333,8 +17336,8 @@
         <v>0.249337045043</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -17482,8 +17485,8 @@
         <v>0.33268960625100003</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -17631,8 +17634,8 @@
         <v>0.246411660788</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -17780,8 +17783,8 @@
         <v>0.27733219885100002</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -17929,8 +17932,8 @@
         <v>0.27741050108199999</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -18078,8 +18081,8 @@
         <v>0.26551856087100001</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -18227,8 +18230,8 @@
         <v>0.64603086831400003</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -18376,8 +18379,8 @@
         <v>0.64777640056100005</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -18525,8 +18528,8 @@
         <v>0.64785103099200003</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -18674,8 +18677,8 @@
         <v>0.64908394367400002</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -18823,8 +18826,8 @@
         <v>0.64937974514700003</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -18972,8 +18975,8 @@
         <v>0.65211349667200003</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -19121,8 +19124,8 @@
         <v>0.65203640830499998</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -19270,8 +19273,8 @@
         <v>0.64932706163800002</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -19419,8 +19422,8 @@
         <v>0.64091148181500002</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -19568,8 +19571,8 @@
         <v>0.64852154200000001</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -19717,8 +19720,8 @@
         <v>0.64912151168400001</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -19866,8 +19869,8 @@
         <v>0.650681602202</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -20015,8 +20018,8 @@
         <v>0.64613628953400004</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -20164,8 +20167,8 @@
         <v>0.64915344935800001</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -20313,8 +20316,8 @@
         <v>0.653395413398</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -20462,8 +20465,8 @@
         <v>0.65001377136299998</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -20611,8 +20614,8 @@
         <v>0.65818505191099996</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -20760,8 +20763,8 @@
         <v>0.65824525244999998</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -20909,8 +20912,8 @@
         <v>0.65722852988799996</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -21058,8 +21061,8 @@
         <v>0.65558043820400003</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -21207,8 +21210,8 @@
         <v>0.65700155105500002</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -21356,8 +21359,8 @@
         <v>0.65611915976000001</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -21505,8 +21508,8 @@
         <v>0.65555641098999995</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -21654,8 +21657,8 @@
         <v>0.65770396984900004</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -21803,8 +21806,8 @@
         <v>0.65735074925000003</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -21952,8 +21955,8 @@
         <v>0.65751304611200001</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -22101,8 +22104,8 @@
         <v>0.65587395626599998</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -22250,8 +22253,8 @@
         <v>0.655678159654</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -22399,8 +22402,8 @@
         <v>0.65604027770899997</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -22548,8 +22551,8 @@
         <v>0.65624939820999995</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -22697,8 +22700,8 @@
         <v>0.65752044826599998</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
